--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Chittagong.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Chittagong.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34220" yWindow="-1940" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="19" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -32,13 +37,12 @@
     <sheet name="Interventions affected fraction" sheetId="23" r:id="rId23"/>
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
-    <sheet name="RR birth by type" sheetId="26" r:id="rId26"/>
-    <sheet name="birth distribution" sheetId="27" r:id="rId27"/>
-    <sheet name="time between births" sheetId="28" r:id="rId28"/>
-    <sheet name="RR birth by time" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
   <si>
     <t>indicators</t>
   </si>
@@ -497,36 +501,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -752,6 +726,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1297,12 +1276,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1297,7 @@
         <v>3034707.8098376617</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1305,7 @@
         <v>622373.98131331103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1313,7 @@
         <v>715328.37493212498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1342,21 +1321,16 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1366,13 +1340,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1389,7 +1363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +1382,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1401,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1420,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1439,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +1458,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1477,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1522,7 +1496,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1541,117 +1515,112 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1663,9 +1632,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1695,11 +1664,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1711,9 +1675,9 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1733,7 +1697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1717,7 @@
         <v>2.2764556962025315</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1775,11 +1739,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1789,12 +1748,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1814,7 +1773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1834,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1854,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1874,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1896,11 +1855,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1910,9 +1864,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1954,11 +1908,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1968,9 +1917,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1984,7 +1933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2000,11 +1949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2014,12 +1958,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2039,7 +1983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2059,7 +2003,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2067,7 +2011,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2075,7 +2019,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2085,11 +2029,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2099,12 +2038,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2124,7 +2063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2144,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2164,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2184,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2206,11 +2145,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2220,13 +2154,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2246,7 +2180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2266,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2274,7 +2208,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2284,11 +2218,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2298,12 +2227,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2337,14 +2266,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2353,11 +2282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2369,13 +2293,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2391,7 +2315,7 @@
         <v>619682.18893796543</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2399,7 +2323,7 @@
         <v>616599.1660479526</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2407,7 +2331,7 @@
         <v>613076.54823281022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2415,7 +2339,7 @@
         <v>609084.18629484833</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2423,7 +2347,7 @@
         <v>605298.57302873384</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2431,7 +2355,7 @@
         <v>601769.28885114309</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2439,7 +2363,7 @@
         <v>597747.82090217527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2447,7 +2371,7 @@
         <v>593249.34758382977</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2455,7 +2379,7 @@
         <v>588278.45359363477</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2463,7 +2387,7 @@
         <v>581071.82449434628</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2471,7 +2395,7 @@
         <v>575437.81295530894</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2479,7 +2403,7 @@
         <v>569426.99071069574</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2487,7 +2411,7 @@
         <v>563048.53314577497</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2498,11 +2422,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2510,11 +2429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2522,7 +2441,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2536,7 +2455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2553,7 +2472,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2570,7 +2489,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2587,7 +2506,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2604,7 +2523,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2621,7 +2540,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2638,7 +2557,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2655,110 +2574,105 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2770,7 +2684,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2780,7 +2694,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2805,7 +2719,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2828,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2851,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2901,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2924,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2947,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2970,110 +2884,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3083,12 +2992,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3108,7 +3017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3128,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -3148,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3168,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3187,11 +3096,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3201,12 +3105,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3229,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3252,7 +3156,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3273,7 +3177,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3296,7 +3200,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3316,34 +3220,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3353,12 +3252,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3381,7 +3280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3404,7 +3303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3425,7 +3324,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3448,7 +3347,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3468,34 +3367,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3503,14 +3397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3533,7 +3427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3556,7 +3450,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3577,7 +3471,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3600,7 +3494,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3620,413 +3514,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.56979999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4038,9 +3548,9 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4051,7 +3561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -4067,11 +3577,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4081,9 +3586,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4103,7 +3608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4123,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4143,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4163,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4203,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4223,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4243,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4263,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4283,7 +3788,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4303,7 +3808,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4323,7 +3828,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4343,7 +3848,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4363,7 +3868,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4383,7 +3888,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4403,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4423,7 +3928,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4445,11 +3950,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4461,9 +3961,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4486,7 +3986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4509,7 +4009,7 @@
         <v>18.90013786253428</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4529,7 +4029,7 @@
         <v>24.77250098597673</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4549,7 +4049,7 @@
         <v>43.535523907450525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4569,7 +4069,7 @@
         <v>16.1138248490081</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4592,7 +4092,7 @@
         <v>46.106727093155776</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4612,7 +4112,7 @@
         <v>36.204311288771379</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4632,7 +4132,7 @@
         <v>14.503500318887012</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4652,7 +4152,7 @@
         <v>2.5700634940919462</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4675,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4695,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4715,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4740,11 +4240,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4754,9 +4249,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4767,7 +4262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4780,11 +4275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4794,9 +4284,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4819,7 +4309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4862,7 +4352,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4882,7 +4372,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4902,7 +4392,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4925,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4945,7 +4435,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4965,7 +4455,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4985,7 +4475,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5008,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5028,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5048,7 +4538,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5068,7 +4558,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5091,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5111,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5151,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5174,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5194,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5214,7 +4704,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5236,11 +4726,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5250,9 +4735,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +4760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5298,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5318,7 +4803,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -5338,7 +4823,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -5358,7 +4843,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5381,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5401,7 +4886,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -5421,7 +4906,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5441,7 +4926,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5464,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5484,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5504,7 +4989,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5524,7 +5009,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5547,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5567,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5587,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5607,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5630,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5650,7 +5135,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5670,7 +5155,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5692,11 +5177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5706,12 +5186,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5734,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5757,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5777,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5797,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5817,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5840,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5860,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5880,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5900,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5923,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5943,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5963,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5983,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -6006,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6026,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -6046,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -6066,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -6109,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -6129,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -6149,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6172,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -6192,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -6212,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -6232,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6255,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6275,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -6295,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -6317,10 +5797,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Chittagong.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Chittagong.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="22" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -38,13 +33,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1272,16 +1267,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>3034707.8098376617</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>622373.98131331103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1313,24 +1308,29 @@
         <v>715328.37493212498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1340,13 +1340,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1515,112 +1515,117 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1632,9 +1637,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1664,6 +1669,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1675,9 +1685,9 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>2.2764556962025315</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1739,6 +1749,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1748,12 +1763,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1773,7 +1788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1855,6 +1870,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1864,9 +1884,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1908,6 +1928,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1917,9 +1942,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1933,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1949,6 +1974,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1958,12 +1988,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1983,7 +2013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2003,7 +2033,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2011,7 +2041,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2019,7 +2049,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2029,6 +2059,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2038,12 +2073,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2063,7 +2098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2145,6 +2180,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2154,13 +2194,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2180,7 +2220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2208,7 +2248,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2218,6 +2258,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2227,12 +2272,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2266,14 +2311,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2282,6 +2327,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2293,13 +2343,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>619682.18893796543</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2323,7 +2373,7 @@
         <v>616599.1660479526</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2331,7 +2381,7 @@
         <v>613076.54823281022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2339,7 +2389,7 @@
         <v>609084.18629484833</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2347,7 +2397,7 @@
         <v>605298.57302873384</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2355,7 +2405,7 @@
         <v>601769.28885114309</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2363,7 +2413,7 @@
         <v>597747.82090217527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2371,7 +2421,7 @@
         <v>593249.34758382977</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2379,7 +2429,7 @@
         <v>588278.45359363477</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2387,7 +2437,7 @@
         <v>581071.82449434628</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2395,7 +2445,7 @@
         <v>575437.81295530894</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2403,7 +2453,7 @@
         <v>569426.99071069574</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2411,7 +2461,7 @@
         <v>563048.53314577497</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2422,6 +2472,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2433,7 +2488,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2441,7 +2496,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2455,7 +2510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +2527,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2489,7 +2544,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2506,7 +2561,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2523,7 +2578,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2540,7 +2595,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2557,7 +2612,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2574,105 +2629,110 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2684,7 +2744,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2694,7 +2754,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2719,7 +2779,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2742,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2765,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2788,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2797,25 +2857,25 @@
       </c>
       <c r="C5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2884,105 +2944,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2992,12 +3057,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3017,7 +3082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3037,27 +3102,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.26</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3077,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3096,6 +3161,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3105,12 +3175,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3133,7 +3203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3156,7 +3226,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3177,7 +3247,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3200,7 +3270,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3220,29 +3290,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3252,12 +3327,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3280,7 +3355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3303,7 +3378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3324,7 +3399,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3347,7 +3422,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3367,29 +3442,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3397,14 +3477,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3427,7 +3507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3450,7 +3530,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3471,7 +3551,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3494,7 +3574,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3514,29 +3594,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3548,9 +3633,9 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3561,7 +3646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -3577,6 +3662,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3586,9 +3676,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3608,7 +3698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3628,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3648,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3688,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3708,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3728,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3768,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3788,7 +3878,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3808,7 +3898,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3828,7 +3918,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3848,7 +3938,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3868,7 +3958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3978,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3908,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3928,7 +4018,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3950,6 +4040,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3961,9 +4056,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3986,7 +4081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4009,7 +4104,7 @@
         <v>18.90013786253428</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4124,7 @@
         <v>24.77250098597673</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4049,7 +4144,7 @@
         <v>43.535523907450525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4069,7 +4164,7 @@
         <v>16.1138248490081</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4092,7 +4187,7 @@
         <v>46.106727093155776</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4112,7 +4207,7 @@
         <v>36.204311288771379</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4132,7 +4227,7 @@
         <v>14.503500318887012</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4152,7 +4247,7 @@
         <v>2.5700634940919462</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4195,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4215,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4240,6 +4335,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4249,9 +4349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4262,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4275,6 +4375,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4284,9 +4389,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4309,7 +4414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4352,7 +4457,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4372,7 +4477,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4392,7 +4497,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4415,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4435,7 +4540,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4455,7 +4560,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4475,7 +4580,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4498,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4518,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4538,7 +4643,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4558,7 +4663,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4581,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4601,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4621,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -4641,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4664,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -4684,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4704,7 +4809,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4726,6 +4831,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4735,9 +4845,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +4870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4783,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4803,7 +4913,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4823,7 +4933,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +4953,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4866,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4886,7 +4996,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4906,7 +5016,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4926,7 +5036,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4949,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4969,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4989,7 +5099,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5009,7 +5119,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5032,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5052,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5072,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5092,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5115,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5135,7 +5245,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5155,7 +5265,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5177,6 +5287,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5186,12 +5301,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5214,7 +5329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5237,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5257,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5277,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5297,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5320,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5340,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5360,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5380,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5403,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5423,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5443,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5463,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5486,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -5506,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -5526,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -5546,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5569,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -5589,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -5609,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -5629,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5652,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -5672,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5692,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -5712,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5735,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -5755,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -5775,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -5797,5 +5912,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>